--- a/Data/Biomass.xlsx
+++ b/Data/Biomass.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/MATLAB/Code and Data/ME_model_Matlab/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/pcLactis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF0D1133-6772-8F41-A024-71F6F652C0F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8EB6A3-68FC-2D4F-BA46-6527E8BACEA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="460" windowWidth="24040" windowHeight="14500" xr2:uid="{5964E4C4-5B2B-8548-8B78-E5268FF683DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -437,7 +443,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,117 +461,120 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2E-3</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2.0000000000000001E-4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1.2999999999999999E-5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>6.0999999999999999E-5</v>
+        <v>1.2999999999999999E-5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1.3799999999999999E-4</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.0999999999999999E-5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6.4000000000000003E-3</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9.6000000000000002E-5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.6000000000000002E-5</v>
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>1.3799999999999999E-4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>7.3999999999999999E-4</v>
+        <v>1.4999999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>1.4999999999999999E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.2999999999999999E-5</v>
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>0.11899999999999999</v>
+        <v>7.3999999999999999E-4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>2.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.2999999999999999E-5</v>
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.11899999999999999</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B17">
+    <sortCondition ref="B2:B17"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>